--- a/FerramentaFPAProfRJPAutomatica-EcoEnergy.xlsx
+++ b/FerramentaFPAProfRJPAutomatica-EcoEnergy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1108\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1108\OneDrive\Documentos\Workspace\Global Solution\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833223C-7931-4720-ADF1-2E415AB0D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3AB80-BA05-4B2E-A52C-F0F9BBD17800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="122">
   <si>
     <t>COMPONENTE FUNCIONAL BÁSICO (CFB)</t>
   </si>
@@ -255,12 +255,6 @@
     <t>PARÂMETROS PARA CÁLCULO DE PONTOS DE FUNÇÃO NÃO AJUSTADOS</t>
   </si>
   <si>
-    <t>Banco de dados NOSQL</t>
-  </si>
-  <si>
-    <t>Dispositivo de leitura de corrente e tensão de residencia</t>
-  </si>
-  <si>
     <t>Front-End web cadastro de usuário</t>
   </si>
   <si>
@@ -279,22 +273,10 @@
     <t>Front-End mobile login de usuário</t>
   </si>
   <si>
-    <t>Tabela de usuário banco relacional</t>
-  </si>
-  <si>
     <t>Tabela de recompensas</t>
   </si>
   <si>
     <t>Back-End de inclusão de recompensas</t>
-  </si>
-  <si>
-    <t>Back-End de armazenamento de corrente e tensão</t>
-  </si>
-  <si>
-    <t>Back-End de cadastro de usuário</t>
-  </si>
-  <si>
-    <t>Back-End de login de usuário</t>
   </si>
   <si>
     <t>Front-End web visualização de dados do usuário</t>
@@ -303,10 +285,136 @@
     <t>Front-End mobile visualização de dados do usuário</t>
   </si>
   <si>
-    <t>Front-End web de visualização do relatório de energia</t>
+    <t>Tabela de propriedades</t>
   </si>
   <si>
-    <t>Front-End mobile de visualização do relatório de energia</t>
+    <t>Tabela de históricos de pontos</t>
+  </si>
+  <si>
+    <t>Tabela de troca de recompensas</t>
+  </si>
+  <si>
+    <t>Tabela de endereços</t>
+  </si>
+  <si>
+    <t>Dispositivo de leitura de consumo de energia de propriedades</t>
+  </si>
+  <si>
+    <t>Banco de dados NOSQL para consumo de energia</t>
+  </si>
+  <si>
+    <t>Tabela de usuário</t>
+  </si>
+  <si>
+    <t>Front-End web de visualização do relatório de consumo de energia</t>
+  </si>
+  <si>
+    <t>Front-End mobile de visualização do relatório de consumo de energia</t>
+  </si>
+  <si>
+    <t>Front-End web de inclusão de recompensas</t>
+  </si>
+  <si>
+    <t>Front-End mobile de inclusão de recompensas</t>
+  </si>
+  <si>
+    <t>Front-End de troca de pontos por recompensas</t>
+  </si>
+  <si>
+    <t>Tabela consumo de energia</t>
+  </si>
+  <si>
+    <t>Registro de usuários</t>
+  </si>
+  <si>
+    <t>Registro de consumo de energia</t>
+  </si>
+  <si>
+    <t>Registro de recompensas</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Registro de troca de recompensas de usuários</t>
+  </si>
+  <si>
+    <t>Registro de propriedades de usuários</t>
+  </si>
+  <si>
+    <t>Registro de históricos de pontos de usuários</t>
+  </si>
+  <si>
+    <t>Back-End de troca de pontos por recompensas</t>
+  </si>
+  <si>
+    <t>Registro de consumo de energia (NOSQL)</t>
+  </si>
+  <si>
+    <t>Back-End de cadastro/login de usuário</t>
+  </si>
+  <si>
+    <t>Back-End de criação de relatório de consumo de energia</t>
+  </si>
+  <si>
+    <t>id da recompensas, descrição da recompensa, valor em pontos da recompensa</t>
+  </si>
+  <si>
+    <t>id do usuário, nome, senha, telefone e quantia de pontos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id do endereço, cep, rua, número, complemento </t>
+  </si>
+  <si>
+    <t>id do consumo, data, valor de consumo e id da propriedade</t>
+  </si>
+  <si>
+    <t>id da troca, data da troca, quantia de pontos gastas, id da recompensa e id do usuário</t>
+  </si>
+  <si>
+    <t>id da residência, id do dispositivo de monitoramento, quantidade de residentes, media de consumo, id do usuário, id do endereço</t>
+  </si>
+  <si>
+    <t>id do histórico, data do histórico, quantidade de pontos, id do usuário</t>
+  </si>
+  <si>
+    <t>id da troca, data da troca, quantia de pontos gastas, id da recompensa e id do usuário, quantia de pontos do usuario, quantiade de pontos do histórico</t>
+  </si>
+  <si>
+    <t>Tabela de dispostivos</t>
+  </si>
+  <si>
+    <t>Registro de dispositivos</t>
+  </si>
+  <si>
+    <t>Back-End de inclusão de dispostivos</t>
+  </si>
+  <si>
+    <t>id do dispositivo, data de implementacao, status de funcionamento, id do usuario</t>
+  </si>
+  <si>
+    <t>Tabela de usuário, Tabela de endereços</t>
+  </si>
+  <si>
+    <t>Registro de endereços de usuários</t>
+  </si>
+  <si>
+    <t>Tabela de troca de recompensas, tabela de recompensas, tabela de usuários</t>
+  </si>
+  <si>
+    <t>Tabela de dispositivos, tabela de usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id do usuário, nome, senha, telefone, quantia de pontos, id do endereço, cep, rua, número, complemento </t>
+  </si>
+  <si>
+    <t>id do dispositivo, tensão, corrente, potência, data e hora</t>
+  </si>
+  <si>
+    <t>Banco de dados NOSQL para consumo de energia, tabela de consumo de energia</t>
+  </si>
+  <si>
+    <t>Media de gasto diário, mensal e anual. Momento do dia com maior gasto.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,6 +945,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1655,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N424"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1808,7 @@
       </c>
       <c r="C5" s="12">
         <f>SUM(H11:H242)+SUM(N247:N424)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1788,459 +1900,661 @@
     </row>
     <row r="12" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="29">
+        <v>6</v>
+      </c>
       <c r="G12" s="39" t="str">
         <f t="shared" ref="G12:G75" si="1">IF(OR(AND(B12="EE",D12&lt;2,F12&lt;16),AND(B12="EE",D12&lt;3,F12&lt;5),AND(B12="CE",D12&lt;2,F12&lt;20),AND(B12="CE",D12&lt;4,F12&lt;6),AND(B12="ALI",D12&lt;2,F12&lt;51),AND(B12="ALI",D12&lt;6,F12&lt;20),AND(B12="AIE",D12&lt;2,F12&lt;51),AND(B12="AIE",D12&lt;6,F12&lt;20)),"Simples",IF(OR(AND(B12="EE",D12=2,F12&gt;15),AND(B12="EE",D12&gt;2,F12&gt;4),AND(B12="CE",AND(D12&gt;1,D12&lt;4),F12&gt;19),AND(B12="CE",D12&gt;3,F12&gt;5),AND(B12="ALI",AND(D12&gt;1,D12&lt;6),F12&gt;50),AND(B12="ALI",D12&gt;5,F12&gt;19),AND(B12="AIE",AND(D12&gt;1,D12&lt;6),F12&gt;50),AND(B12="AIE",D12&gt;5,F12&gt;19)),"Complexo",IF(OR(B12="",D12="",F12=""),"","Medio")))</f>
-        <v/>
-      </c>
-      <c r="H12" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="32">
+        <v>6</v>
+      </c>
       <c r="G13" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H13" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="32">
+        <v>4</v>
+      </c>
       <c r="G14" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(AND(B14="EE",D14&lt;2,F14&lt;16),AND(B14="EE",D14&lt;3,F14&lt;5),AND(B14="CE",D14&lt;2,F14&lt;20),AND(B14="CE",D14&lt;4,F14&lt;6),AND(B14="ALI",D14&lt;2,F14&lt;51),AND(B14="ALI",D14&lt;6,F14&lt;20),AND(B14="AIE",D14&lt;2,F14&lt;51),AND(B14="AIE",D14&lt;6,F14&lt;20)),"Simples",IF(OR(AND(B14="EE",D14=2,F14&gt;15),AND(B14="EE",D14&gt;2,F14&gt;4),AND(B14="CE",AND(D14&gt;1,D14&lt;4),F14&gt;19),AND(B14="CE",D14&gt;3,F14&gt;5),AND(B14="ALI",AND(D14&gt;1,D14&lt;6),F14&gt;50),AND(B14="ALI",D14&gt;5,F14&gt;19),AND(B14="AIE",AND(D14&gt;1,D14&lt;6),F14&gt;50),AND(B14="AIE",D14&gt;5,F14&gt;19)),"Complexo",IF(OR(B14="",D14="",F14=""),"","Medio")))</f>
+        <v>Simples</v>
+      </c>
+      <c r="H14" s="39">
+        <f>IF(AND(B14="AIE",G14="Simples"),7,IF(AND(B14="AIE",G14="Medio"),10,IF(AND(B14="AIE",G14="Complexo"),15,IF(AND(B14="ALI",G14="Simples"),7,IF(AND(B14="ALI",G14="Medio"),10,IF(AND(B14="ALI",G14="Complexo"),15,IF(AND(B14="CE",G14="Simples"),4,IF(AND(B14="CE",G14="Medio"),5,IF(AND(B14="CE",G14="Complexo"),7,IF(AND(B14="EE",G14="Simples"),3,IF(AND(B14="EE",G14="Medio"),4,IF(AND(B14="EE",G14="Complexo"),6,""))))))))))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31"/>
+        <v>69</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" s="32"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
       <c r="G15" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
+        <v>70</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="32"/>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H16" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
+        <v>76</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D17" s="32"/>
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H17" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
+        <v>77</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D18" s="32"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H18" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D19" s="32"/>
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H19" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
       <c r="G20" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H20" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D21" s="32"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
       <c r="G21" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H21" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
+        <v>71</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D22" s="32"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
       <c r="G22" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H22" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="32">
+        <v>5</v>
+      </c>
       <c r="G23" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H23" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="32">
+        <v>3</v>
+      </c>
       <c r="G24" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H24" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="32">
+        <v>3</v>
+      </c>
       <c r="G25" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" ref="H25:H75" si="2">IF(AND(B25="AIE",G25="Simples"),7,IF(AND(B25="AIE",G25="Medio"),10,IF(AND(B25="AIE",G25="Complexo"),15,IF(AND(B25="ALI",G25="Simples"),7,IF(AND(B25="ALI",G25="Medio"),10,IF(AND(B25="ALI",G25="Complexo"),15,IF(AND(B25="CE",G25="Simples"),4,IF(AND(B25="CE",G25="Medio"),5,IF(AND(B25="CE",G25="Complexo"),7,IF(AND(B25="EE",G25="Simples"),3,IF(AND(B25="EE",G25="Medio"),4,IF(AND(B25="EE",G25="Complexo"),6,""))))))))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="32">
+        <v>2</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="32">
+        <v>10</v>
+      </c>
       <c r="G26" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="39" t="str">
+        <v>Medio</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="32">
+        <v>4</v>
+      </c>
       <c r="G27" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(OR(AND(B27="EE",D27&lt;2,F27&lt;16),AND(B27="EE",D27&lt;3,F27&lt;5),AND(B27="CE",D27&lt;2,F27&lt;20),AND(B27="CE",D27&lt;4,F27&lt;6),AND(B27="ALI",D27&lt;2,F27&lt;51),AND(B27="ALI",D27&lt;6,F27&lt;20),AND(B27="AIE",D27&lt;2,F27&lt;51),AND(B27="AIE",D27&lt;6,F27&lt;20)),"Simples",IF(OR(AND(B27="EE",D27=2,F27&gt;15),AND(B27="EE",D27&gt;2,F27&gt;4),AND(B27="CE",AND(D27&gt;1,D27&lt;4),F27&gt;19),AND(B27="CE",D27&gt;3,F27&gt;5),AND(B27="ALI",AND(D27&gt;1,D27&lt;6),F27&gt;50),AND(B27="ALI",D27&gt;5,F27&gt;19),AND(B27="AIE",AND(D27&gt;1,D27&lt;6),F27&gt;50),AND(B27="AIE",D27&gt;5,F27&gt;19)),"Complexo",IF(OR(B27="",D27="",F27=""),"","Medio")))</f>
+        <v>Simples</v>
+      </c>
+      <c r="H27" s="39">
+        <f>IF(AND(B27="AIE",G27="Simples"),7,IF(AND(B27="AIE",G27="Medio"),10,IF(AND(B27="AIE",G27="Complexo"),15,IF(AND(B27="ALI",G27="Simples"),7,IF(AND(B27="ALI",G27="Medio"),10,IF(AND(B27="ALI",G27="Complexo"),15,IF(AND(B27="CE",G27="Simples"),4,IF(AND(B27="CE",G27="Medio"),5,IF(AND(B27="CE",G27="Complexo"),7,IF(AND(B27="EE",G27="Simples"),3,IF(AND(B27="EE",G27="Medio"),4,IF(AND(B27="EE",G27="Complexo"),6,""))))))))))))</f>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" s="32"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
       <c r="G28" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H28" s="39">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
+        <v>86</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="32"/>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
       <c r="G29" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H29" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H29" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="32">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="32">
+        <v>5</v>
+      </c>
       <c r="G30" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H30" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="32">
+        <v>5</v>
+      </c>
       <c r="G31" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H31" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H31" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="32">
+        <v>6</v>
+      </c>
       <c r="G32" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H32" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H32" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="32">
+        <v>4</v>
+      </c>
       <c r="G33" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H33" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H33" s="39">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D34" s="32"/>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H34" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D35" s="32"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
       <c r="G35" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H35" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="31"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D36" s="32"/>
       <c r="E36" s="31"/>
       <c r="F36" s="32"/>
       <c r="G36" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H36" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="32">
+        <v>3</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="32">
+        <v>7</v>
+      </c>
       <c r="G37" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H37" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+        <f>IF(OR(AND(B37="EE",D37&lt;2,F37&lt;16),AND(B37="EE",D37&lt;3,F37&lt;5),AND(B37="CE",D37&lt;2,F37&lt;20),AND(B37="CE",D37&lt;4,F37&lt;6),AND(B37="ALI",D37&lt;2,F37&lt;51),AND(B37="ALI",D37&lt;6,F37&lt;20),AND(B37="AIE",D37&lt;2,F37&lt;51),AND(B37="AIE",D37&lt;6,F37&lt;20)),"Simples",IF(OR(AND(B37="EE",D37=2,F37&gt;15),AND(B37="EE",D37&gt;2,F37&gt;4),AND(B37="CE",AND(D37&gt;1,D37&lt;4),F37&gt;19),AND(B37="CE",D37&gt;3,F37&gt;5),AND(B37="ALI",AND(D37&gt;1,D37&lt;6),F37&gt;50),AND(B37="ALI",D37&gt;5,F37&gt;19),AND(B37="AIE",AND(D37&gt;1,D37&lt;6),F37&gt;50),AND(B37="AIE",D37&gt;5,F37&gt;19)),"Complexo",IF(OR(B37="",D37="",F37=""),"","Medio")))</f>
+        <v>Complexo</v>
+      </c>
+      <c r="H37" s="39">
+        <f>IF(AND(B37="AIE",G37="Simples"),7,IF(AND(B37="AIE",G37="Medio"),10,IF(AND(B37="AIE",G37="Complexo"),15,IF(AND(B37="ALI",G37="Simples"),7,IF(AND(B37="ALI",G37="Medio"),10,IF(AND(B37="ALI",G37="Complexo"),15,IF(AND(B37="CE",G37="Simples"),4,IF(AND(B37="CE",G37="Medio"),5,IF(AND(B37="CE",G37="Complexo"),7,IF(AND(B37="EE",G37="Simples"),3,IF(AND(B37="EE",G37="Medio"),4,IF(AND(B37="EE",G37="Complexo"),6,""))))))))))))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="31"/>
@@ -2254,20 +2568,32 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+    <row r="39" spans="1:8" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="32">
+        <v>5</v>
+      </c>
       <c r="G39" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H39" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H39" s="39">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2278,11 +2604,11 @@
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="39" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(B40="EE",D40&lt;2,F40&lt;16),AND(B40="EE",D40&lt;3,F40&lt;5),AND(B40="CE",D40&lt;2,F40&lt;20),AND(B40="CE",D40&lt;4,F40&lt;6),AND(B40="ALI",D40&lt;2,F40&lt;51),AND(B40="ALI",D40&lt;6,F40&lt;20),AND(B40="AIE",D40&lt;2,F40&lt;51),AND(B40="AIE",D40&lt;6,F40&lt;20)),"Simples",IF(OR(AND(B40="EE",D40=2,F40&gt;15),AND(B40="EE",D40&gt;2,F40&gt;4),AND(B40="CE",AND(D40&gt;1,D40&lt;4),F40&gt;19),AND(B40="CE",D40&gt;3,F40&gt;5),AND(B40="ALI",AND(D40&gt;1,D40&lt;6),F40&gt;50),AND(B40="ALI",D40&gt;5,F40&gt;19),AND(B40="AIE",AND(D40&gt;1,D40&lt;6),F40&gt;50),AND(B40="AIE",D40&gt;5,F40&gt;19)),"Complexo",IF(OR(B40="",D40="",F40=""),"","Medio")))</f>
         <v/>
       </c>
       <c r="H40" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(B40="AIE",G40="Simples"),7,IF(AND(B40="AIE",G40="Medio"),10,IF(AND(B40="AIE",G40="Complexo"),15,IF(AND(B40="ALI",G40="Simples"),7,IF(AND(B40="ALI",G40="Medio"),10,IF(AND(B40="ALI",G40="Complexo"),15,IF(AND(B40="CE",G40="Simples"),4,IF(AND(B40="CE",G40="Medio"),5,IF(AND(B40="CE",G40="Complexo"),7,IF(AND(B40="EE",G40="Simples"),3,IF(AND(B40="EE",G40="Medio"),4,IF(AND(B40="EE",G40="Complexo"),6,""))))))))))))</f>
         <v/>
       </c>
     </row>
@@ -5620,34 +5946,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="31"/>
+    <row r="247" spans="1:14" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="B247" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C247" s="31"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="31"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="31"/>
+      <c r="C247" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D247" s="32">
+        <v>2</v>
+      </c>
+      <c r="E247" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F247" s="32">
+        <v>6</v>
+      </c>
+      <c r="G247" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="H247" s="29"/>
-      <c r="I247" s="31"/>
-      <c r="J247" s="29"/>
+      <c r="I247" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J247" s="29">
+        <v>4</v>
+      </c>
       <c r="K247" s="42" t="str">
         <f>IF(A247&lt;&gt;"",IF(OR(AND(D247&lt;2,F247&lt;16),AND(D247=2,F247&lt;5)),"Simples",IF(AND(D247=2,F247&gt;15),"Complexo",IF(AND(D247&gt;2,F247&gt;4),"Complexo","Medio"))),"")</f>
-        <v/>
+        <v>Medio</v>
       </c>
       <c r="L247" s="42" t="str">
-        <f t="shared" ref="L247" si="9">IF(A247&lt;&gt;"",IF(OR(AND(H247&lt;2,J247&lt;20),AND(AND(H242&gt;1,H247&lt;4),J247 &lt;6)),"Simples",IF(OR(AND(H247&gt;1,H247&lt;4,J247&gt;19),AND(H247&gt;3,J247&gt;5)),"Complexo","Medio")),"")</f>
-        <v/>
+        <f>IF(A247&lt;&gt;"",IF(OR(AND(H247&lt;2,J247&lt;20),AND(AND(H242&gt;1,H247&lt;4),J247 &lt;6)),"Simples",IF(OR(AND(H247&gt;1,H247&lt;4,J247&gt;19),AND(H247&gt;3,J247&gt;5)),"Complexo","Medio")),"")</f>
+        <v>Simples</v>
       </c>
       <c r="M247" s="42" t="str">
-        <f t="shared" ref="M247:M248" si="10">IF(A247&lt;&gt;"",IF(AND(K247="Simples",L247="Simples"),"Simples",IF(AND(K247="Simples",L247="Medio"),"Medio",IF(AND(K247="Medio",L247="Simples"),"Medio",IF(AND(K247="Medio",L247="Medio"),"Medio","Complexo")))),"")</f>
-        <v/>
-      </c>
-      <c r="N247" s="44" t="str">
-        <f t="shared" ref="N247" si="11">IF(AND(A247&lt;&gt;"",M247="Simples"),4,IF(AND(A247&lt;&gt;0,M247="Medio"),5,IF(AND(A247&lt;&gt;0,M247="Complexo"),7,"")))</f>
-        <v/>
+        <f>IF(A247&lt;&gt;"",IF(AND(K247="Simples",L247="Simples"),"Simples",IF(AND(K247="Simples",L247="Medio"),"Medio",IF(AND(K247="Medio",L247="Simples"),"Medio",IF(AND(K247="Medio",L247="Medio"),"Medio","Complexo")))),"")</f>
+        <v>Medio</v>
+      </c>
+      <c r="N247" s="44">
+        <f>IF(AND(A247&lt;&gt;"",M247="Simples"),4,IF(AND(A247&lt;&gt;0,M247="Medio"),5,IF(AND(A247&lt;&gt;0,M247="Complexo"),7,"")))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -5672,11 +6014,11 @@
         <v/>
       </c>
       <c r="M248" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(A248&lt;&gt;"",IF(AND(K248="Simples",L248="Simples"),"Simples",IF(AND(K248="Simples",L248="Medio"),"Medio",IF(AND(K248="Medio",L248="Simples"),"Medio",IF(AND(K248="Medio",L248="Medio"),"Medio","Complexo")))),"")</f>
         <v/>
       </c>
       <c r="N248" s="44" t="str">
-        <f t="shared" ref="N248:N311" si="12">IF(AND(A248&lt;&gt;"",M248="Simples"),4,IF(AND(A248&lt;&gt;0,M248="Medio"),5,IF(AND(A248&lt;&gt;0,M248="Complexo"),7,"")))</f>
+        <f>IF(AND(A248&lt;&gt;"",M248="Simples"),4,IF(AND(A248&lt;&gt;0,M248="Medio"),5,IF(AND(A248&lt;&gt;0,M248="Complexo"),7,"")))</f>
         <v/>
       </c>
     </row>
@@ -5694,19 +6036,19 @@
       <c r="I249" s="31"/>
       <c r="J249" s="29"/>
       <c r="K249" s="42" t="str">
-        <f t="shared" ref="K249:K311" si="13">IF(A249&lt;&gt;"",IF(OR(AND(D249&lt;2,F249&lt;16),AND(D249=2,F249&lt;5)),"Simples",IF(AND(D249=2,F249&gt;15),"Complexo",IF(AND(D249&gt;2,F249&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="K249:K311" si="9">IF(A249&lt;&gt;"",IF(OR(AND(D249&lt;2,F249&lt;16),AND(D249=2,F249&lt;5)),"Simples",IF(AND(D249=2,F249&gt;15),"Complexo",IF(AND(D249&gt;2,F249&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="L249" s="42" t="str">
-        <f t="shared" ref="L249:L312" si="14">IF(A249&lt;&gt;"",IF(OR(AND(H249&lt;2,J249&lt;16),AND(H249=2,J249&lt;5)),"Simples",IF(AND(H249=2,J249&gt;15),"Complexo",IF(AND(H249&gt;2,J249&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="L249:L312" si="10">IF(A249&lt;&gt;"",IF(OR(AND(H249&lt;2,J249&lt;16),AND(H249=2,J249&lt;5)),"Simples",IF(AND(H249=2,J249&gt;15),"Complexo",IF(AND(H249&gt;2,J249&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="M249" s="42" t="str">
-        <f t="shared" ref="M249:M312" si="15">IF(A249&lt;&gt;"",IF(AND(K249="Simples",L249="Simples"),"Simples",IF(AND(K249="Simples",L249="Medio"),"Medio",IF(AND(K249="Medio",L249="Simples"),"Medio",IF(AND(K249="Medio",L249="Medio"),"Medio","Complexo")))),"")</f>
+        <f t="shared" ref="M249:M312" si="11">IF(A249&lt;&gt;"",IF(AND(K249="Simples",L249="Simples"),"Simples",IF(AND(K249="Simples",L249="Medio"),"Medio",IF(AND(K249="Medio",L249="Simples"),"Medio",IF(AND(K249="Medio",L249="Medio"),"Medio","Complexo")))),"")</f>
         <v/>
       </c>
       <c r="N249" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N249:N311" si="12">IF(AND(A249&lt;&gt;"",M249="Simples"),4,IF(AND(A249&lt;&gt;0,M249="Medio"),5,IF(AND(A249&lt;&gt;0,M249="Complexo"),7,"")))</f>
         <v/>
       </c>
     </row>
@@ -5724,15 +6066,15 @@
       <c r="I250" s="31"/>
       <c r="J250" s="29"/>
       <c r="K250" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L250" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M250" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N250" s="44" t="str">
@@ -5754,15 +6096,15 @@
       <c r="I251" s="31"/>
       <c r="J251" s="29"/>
       <c r="K251" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L251" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M251" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N251" s="44" t="str">
@@ -5784,15 +6126,15 @@
       <c r="I252" s="31"/>
       <c r="J252" s="29"/>
       <c r="K252" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L252" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M252" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N252" s="44" t="str">
@@ -5814,15 +6156,15 @@
       <c r="I253" s="31"/>
       <c r="J253" s="29"/>
       <c r="K253" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L253" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M253" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N253" s="44" t="str">
@@ -5844,15 +6186,15 @@
       <c r="I254" s="31"/>
       <c r="J254" s="29"/>
       <c r="K254" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L254" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M254" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N254" s="44" t="str">
@@ -5874,15 +6216,15 @@
       <c r="I255" s="31"/>
       <c r="J255" s="29"/>
       <c r="K255" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L255" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M255" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N255" s="44" t="str">
@@ -5904,15 +6246,15 @@
       <c r="I256" s="31"/>
       <c r="J256" s="29"/>
       <c r="K256" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L256" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M256" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N256" s="44" t="str">
@@ -5934,15 +6276,15 @@
       <c r="I257" s="31"/>
       <c r="J257" s="29"/>
       <c r="K257" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L257" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M257" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N257" s="44" t="str">
@@ -5964,15 +6306,15 @@
       <c r="I258" s="31"/>
       <c r="J258" s="29"/>
       <c r="K258" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L258" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M258" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N258" s="44" t="str">
@@ -5994,15 +6336,15 @@
       <c r="I259" s="31"/>
       <c r="J259" s="29"/>
       <c r="K259" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L259" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M259" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N259" s="44" t="str">
@@ -6024,15 +6366,15 @@
       <c r="I260" s="31"/>
       <c r="J260" s="29"/>
       <c r="K260" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L260" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M260" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N260" s="44" t="str">
@@ -6054,15 +6396,15 @@
       <c r="I261" s="31"/>
       <c r="J261" s="29"/>
       <c r="K261" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L261" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M261" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N261" s="44" t="str">
@@ -6084,15 +6426,15 @@
       <c r="I262" s="31"/>
       <c r="J262" s="29"/>
       <c r="K262" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L262" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M262" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N262" s="44" t="str">
@@ -6114,15 +6456,15 @@
       <c r="I263" s="31"/>
       <c r="J263" s="29"/>
       <c r="K263" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L263" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M263" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N263" s="44" t="str">
@@ -6144,15 +6486,15 @@
       <c r="I264" s="31"/>
       <c r="J264" s="29"/>
       <c r="K264" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L264" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M264" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N264" s="44" t="str">
@@ -6174,15 +6516,15 @@
       <c r="I265" s="31"/>
       <c r="J265" s="29"/>
       <c r="K265" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L265" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M265" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N265" s="44" t="str">
@@ -6204,15 +6546,15 @@
       <c r="I266" s="31"/>
       <c r="J266" s="29"/>
       <c r="K266" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L266" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M266" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N266" s="44" t="str">
@@ -6234,15 +6576,15 @@
       <c r="I267" s="31"/>
       <c r="J267" s="29"/>
       <c r="K267" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L267" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M267" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N267" s="44" t="str">
@@ -6264,15 +6606,15 @@
       <c r="I268" s="31"/>
       <c r="J268" s="29"/>
       <c r="K268" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L268" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M268" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N268" s="44" t="str">
@@ -6294,15 +6636,15 @@
       <c r="I269" s="31"/>
       <c r="J269" s="29"/>
       <c r="K269" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L269" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M269" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N269" s="44" t="str">
@@ -6324,15 +6666,15 @@
       <c r="I270" s="31"/>
       <c r="J270" s="29"/>
       <c r="K270" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L270" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M270" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N270" s="44" t="str">
@@ -6354,15 +6696,15 @@
       <c r="I271" s="31"/>
       <c r="J271" s="29"/>
       <c r="K271" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L271" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M271" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N271" s="44" t="str">
@@ -6384,15 +6726,15 @@
       <c r="I272" s="31"/>
       <c r="J272" s="29"/>
       <c r="K272" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L272" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M272" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N272" s="44" t="str">
@@ -6414,15 +6756,15 @@
       <c r="I273" s="31"/>
       <c r="J273" s="29"/>
       <c r="K273" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L273" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M273" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N273" s="44" t="str">
@@ -6444,15 +6786,15 @@
       <c r="I274" s="31"/>
       <c r="J274" s="29"/>
       <c r="K274" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L274" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M274" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N274" s="44" t="str">
@@ -6474,15 +6816,15 @@
       <c r="I275" s="31"/>
       <c r="J275" s="29"/>
       <c r="K275" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L275" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M275" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N275" s="44" t="str">
@@ -6504,15 +6846,15 @@
       <c r="I276" s="31"/>
       <c r="J276" s="29"/>
       <c r="K276" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L276" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M276" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N276" s="44" t="str">
@@ -6534,15 +6876,15 @@
       <c r="I277" s="31"/>
       <c r="J277" s="29"/>
       <c r="K277" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L277" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M277" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N277" s="44" t="str">
@@ -6564,15 +6906,15 @@
       <c r="I278" s="31"/>
       <c r="J278" s="29"/>
       <c r="K278" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L278" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M278" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N278" s="44" t="str">
@@ -6594,15 +6936,15 @@
       <c r="I279" s="31"/>
       <c r="J279" s="29"/>
       <c r="K279" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L279" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M279" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N279" s="44" t="str">
@@ -6624,15 +6966,15 @@
       <c r="I280" s="31"/>
       <c r="J280" s="29"/>
       <c r="K280" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L280" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M280" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N280" s="44" t="str">
@@ -6654,15 +6996,15 @@
       <c r="I281" s="31"/>
       <c r="J281" s="29"/>
       <c r="K281" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L281" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M281" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N281" s="44" t="str">
@@ -6684,15 +7026,15 @@
       <c r="I282" s="31"/>
       <c r="J282" s="29"/>
       <c r="K282" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L282" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M282" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N282" s="44" t="str">
@@ -6714,15 +7056,15 @@
       <c r="I283" s="31"/>
       <c r="J283" s="29"/>
       <c r="K283" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L283" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M283" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N283" s="44" t="str">
@@ -6744,15 +7086,15 @@
       <c r="I284" s="31"/>
       <c r="J284" s="29"/>
       <c r="K284" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L284" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M284" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N284" s="44" t="str">
@@ -6774,15 +7116,15 @@
       <c r="I285" s="31"/>
       <c r="J285" s="29"/>
       <c r="K285" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L285" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M285" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N285" s="44" t="str">
@@ -6804,15 +7146,15 @@
       <c r="I286" s="31"/>
       <c r="J286" s="29"/>
       <c r="K286" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L286" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M286" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N286" s="44" t="str">
@@ -6834,15 +7176,15 @@
       <c r="I287" s="31"/>
       <c r="J287" s="29"/>
       <c r="K287" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L287" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M287" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N287" s="44" t="str">
@@ -6864,15 +7206,15 @@
       <c r="I288" s="31"/>
       <c r="J288" s="29"/>
       <c r="K288" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L288" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M288" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N288" s="44" t="str">
@@ -6894,15 +7236,15 @@
       <c r="I289" s="31"/>
       <c r="J289" s="29"/>
       <c r="K289" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L289" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M289" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N289" s="44" t="str">
@@ -6924,15 +7266,15 @@
       <c r="I290" s="31"/>
       <c r="J290" s="29"/>
       <c r="K290" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L290" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M290" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N290" s="44" t="str">
@@ -6954,15 +7296,15 @@
       <c r="I291" s="31"/>
       <c r="J291" s="29"/>
       <c r="K291" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L291" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M291" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N291" s="44" t="str">
@@ -6984,15 +7326,15 @@
       <c r="I292" s="31"/>
       <c r="J292" s="29"/>
       <c r="K292" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L292" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M292" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N292" s="44" t="str">
@@ -7014,15 +7356,15 @@
       <c r="I293" s="31"/>
       <c r="J293" s="29"/>
       <c r="K293" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L293" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M293" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N293" s="44" t="str">
@@ -7044,15 +7386,15 @@
       <c r="I294" s="31"/>
       <c r="J294" s="29"/>
       <c r="K294" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L294" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M294" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N294" s="44" t="str">
@@ -7074,15 +7416,15 @@
       <c r="I295" s="31"/>
       <c r="J295" s="29"/>
       <c r="K295" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L295" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M295" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N295" s="44" t="str">
@@ -7104,15 +7446,15 @@
       <c r="I296" s="31"/>
       <c r="J296" s="29"/>
       <c r="K296" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L296" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M296" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N296" s="44" t="str">
@@ -7134,15 +7476,15 @@
       <c r="I297" s="31"/>
       <c r="J297" s="29"/>
       <c r="K297" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L297" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M297" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N297" s="44" t="str">
@@ -7164,15 +7506,15 @@
       <c r="I298" s="31"/>
       <c r="J298" s="29"/>
       <c r="K298" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L298" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M298" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N298" s="44" t="str">
@@ -7194,15 +7536,15 @@
       <c r="I299" s="31"/>
       <c r="J299" s="29"/>
       <c r="K299" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L299" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M299" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N299" s="44" t="str">
@@ -7224,15 +7566,15 @@
       <c r="I300" s="31"/>
       <c r="J300" s="29"/>
       <c r="K300" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L300" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M300" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N300" s="44" t="str">
@@ -7254,15 +7596,15 @@
       <c r="I301" s="31"/>
       <c r="J301" s="29"/>
       <c r="K301" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L301" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M301" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N301" s="44" t="str">
@@ -7284,15 +7626,15 @@
       <c r="I302" s="31"/>
       <c r="J302" s="29"/>
       <c r="K302" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L302" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M302" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N302" s="44" t="str">
@@ -7314,15 +7656,15 @@
       <c r="I303" s="31"/>
       <c r="J303" s="29"/>
       <c r="K303" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L303" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M303" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N303" s="44" t="str">
@@ -7344,15 +7686,15 @@
       <c r="I304" s="31"/>
       <c r="J304" s="29"/>
       <c r="K304" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L304" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M304" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N304" s="44" t="str">
@@ -7374,15 +7716,15 @@
       <c r="I305" s="31"/>
       <c r="J305" s="29"/>
       <c r="K305" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L305" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M305" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N305" s="44" t="str">
@@ -7404,15 +7746,15 @@
       <c r="I306" s="31"/>
       <c r="J306" s="29"/>
       <c r="K306" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L306" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M306" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N306" s="44" t="str">
@@ -7434,15 +7776,15 @@
       <c r="I307" s="31"/>
       <c r="J307" s="29"/>
       <c r="K307" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L307" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M307" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N307" s="44" t="str">
@@ -7464,15 +7806,15 @@
       <c r="I308" s="31"/>
       <c r="J308" s="29"/>
       <c r="K308" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L308" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M308" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N308" s="44" t="str">
@@ -7494,15 +7836,15 @@
       <c r="I309" s="31"/>
       <c r="J309" s="29"/>
       <c r="K309" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L309" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M309" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N309" s="44" t="str">
@@ -7524,15 +7866,15 @@
       <c r="I310" s="31"/>
       <c r="J310" s="29"/>
       <c r="K310" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L310" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M310" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N310" s="44" t="str">
@@ -7554,15 +7896,15 @@
       <c r="I311" s="31"/>
       <c r="J311" s="29"/>
       <c r="K311" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L311" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M311" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N311" s="44" t="str">
@@ -7584,19 +7926,19 @@
       <c r="I312" s="31"/>
       <c r="J312" s="29"/>
       <c r="K312" s="42" t="str">
-        <f t="shared" ref="K312:K375" si="16">IF(A312&lt;&gt;"",IF(OR(AND(D312&lt;2,F312&lt;16),AND(D312=2,F312&lt;5)),"Simples",IF(AND(D312=2,F312&gt;15),"Complexo",IF(AND(D312&gt;2,F312&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="K312:K375" si="13">IF(A312&lt;&gt;"",IF(OR(AND(D312&lt;2,F312&lt;16),AND(D312=2,F312&lt;5)),"Simples",IF(AND(D312=2,F312&gt;15),"Complexo",IF(AND(D312&gt;2,F312&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="L312" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M312" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N312" s="44" t="str">
-        <f t="shared" ref="N312:N375" si="17">IF(AND(A312&lt;&gt;"",M312="Simples"),4,IF(AND(A312&lt;&gt;0,M312="Medio"),5,IF(AND(A312&lt;&gt;0,M312="Complexo"),7,"")))</f>
+        <f t="shared" ref="N312:N375" si="14">IF(AND(A312&lt;&gt;"",M312="Simples"),4,IF(AND(A312&lt;&gt;0,M312="Medio"),5,IF(AND(A312&lt;&gt;0,M312="Complexo"),7,"")))</f>
         <v/>
       </c>
     </row>
@@ -7614,19 +7956,19 @@
       <c r="I313" s="31"/>
       <c r="J313" s="29"/>
       <c r="K313" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L313" s="42" t="str">
-        <f t="shared" ref="L313:L376" si="18">IF(A313&lt;&gt;"",IF(OR(AND(H313&lt;2,J313&lt;16),AND(H313=2,J313&lt;5)),"Simples",IF(AND(H313=2,J313&gt;15),"Complexo",IF(AND(H313&gt;2,J313&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="L313:L376" si="15">IF(A313&lt;&gt;"",IF(OR(AND(H313&lt;2,J313&lt;16),AND(H313=2,J313&lt;5)),"Simples",IF(AND(H313=2,J313&gt;15),"Complexo",IF(AND(H313&gt;2,J313&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="M313" s="42" t="str">
-        <f t="shared" ref="M313:M376" si="19">IF(A313&lt;&gt;"",IF(AND(K313="Simples",L313="Simples"),"Simples",IF(AND(K313="Simples",L313="Medio"),"Medio",IF(AND(K313="Medio",L313="Simples"),"Medio",IF(AND(K313="Medio",L313="Medio"),"Medio","Complexo")))),"")</f>
+        <f t="shared" ref="M313:M376" si="16">IF(A313&lt;&gt;"",IF(AND(K313="Simples",L313="Simples"),"Simples",IF(AND(K313="Simples",L313="Medio"),"Medio",IF(AND(K313="Medio",L313="Simples"),"Medio",IF(AND(K313="Medio",L313="Medio"),"Medio","Complexo")))),"")</f>
         <v/>
       </c>
       <c r="N313" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7644,19 +7986,19 @@
       <c r="I314" s="31"/>
       <c r="J314" s="29"/>
       <c r="K314" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L314" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M314" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L314" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M314" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N314" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7674,19 +8016,19 @@
       <c r="I315" s="31"/>
       <c r="J315" s="29"/>
       <c r="K315" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L315" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M315" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L315" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M315" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N315" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7704,19 +8046,19 @@
       <c r="I316" s="31"/>
       <c r="J316" s="29"/>
       <c r="K316" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L316" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M316" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L316" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M316" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N316" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7734,19 +8076,19 @@
       <c r="I317" s="31"/>
       <c r="J317" s="29"/>
       <c r="K317" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L317" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M317" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L317" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M317" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N317" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7764,19 +8106,19 @@
       <c r="I318" s="31"/>
       <c r="J318" s="29"/>
       <c r="K318" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L318" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M318" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L318" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M318" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N318" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7794,19 +8136,19 @@
       <c r="I319" s="31"/>
       <c r="J319" s="29"/>
       <c r="K319" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L319" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M319" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L319" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M319" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N319" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7824,19 +8166,19 @@
       <c r="I320" s="31"/>
       <c r="J320" s="29"/>
       <c r="K320" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L320" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M320" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L320" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M320" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N320" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7854,19 +8196,19 @@
       <c r="I321" s="31"/>
       <c r="J321" s="29"/>
       <c r="K321" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L321" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M321" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L321" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M321" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N321" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7884,19 +8226,19 @@
       <c r="I322" s="31"/>
       <c r="J322" s="29"/>
       <c r="K322" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L322" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M322" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L322" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M322" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N322" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7914,19 +8256,19 @@
       <c r="I323" s="31"/>
       <c r="J323" s="29"/>
       <c r="K323" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L323" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M323" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L323" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M323" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N323" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7944,19 +8286,19 @@
       <c r="I324" s="31"/>
       <c r="J324" s="29"/>
       <c r="K324" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L324" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M324" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L324" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M324" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N324" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7974,19 +8316,19 @@
       <c r="I325" s="31"/>
       <c r="J325" s="29"/>
       <c r="K325" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L325" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M325" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L325" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M325" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N325" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8004,19 +8346,19 @@
       <c r="I326" s="31"/>
       <c r="J326" s="29"/>
       <c r="K326" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L326" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M326" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L326" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M326" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N326" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8034,19 +8376,19 @@
       <c r="I327" s="31"/>
       <c r="J327" s="29"/>
       <c r="K327" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L327" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M327" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L327" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M327" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N327" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8064,19 +8406,19 @@
       <c r="I328" s="31"/>
       <c r="J328" s="29"/>
       <c r="K328" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L328" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M328" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L328" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M328" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N328" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8094,19 +8436,19 @@
       <c r="I329" s="31"/>
       <c r="J329" s="29"/>
       <c r="K329" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L329" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M329" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L329" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M329" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N329" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8124,19 +8466,19 @@
       <c r="I330" s="31"/>
       <c r="J330" s="29"/>
       <c r="K330" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L330" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M330" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L330" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M330" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N330" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8154,19 +8496,19 @@
       <c r="I331" s="31"/>
       <c r="J331" s="29"/>
       <c r="K331" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L331" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M331" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L331" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M331" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N331" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8184,19 +8526,19 @@
       <c r="I332" s="31"/>
       <c r="J332" s="29"/>
       <c r="K332" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L332" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M332" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L332" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M332" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N332" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8214,19 +8556,19 @@
       <c r="I333" s="31"/>
       <c r="J333" s="29"/>
       <c r="K333" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L333" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M333" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L333" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M333" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N333" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8244,19 +8586,19 @@
       <c r="I334" s="31"/>
       <c r="J334" s="29"/>
       <c r="K334" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L334" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M334" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L334" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M334" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N334" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8274,19 +8616,19 @@
       <c r="I335" s="31"/>
       <c r="J335" s="29"/>
       <c r="K335" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L335" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M335" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L335" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M335" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N335" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8304,19 +8646,19 @@
       <c r="I336" s="31"/>
       <c r="J336" s="29"/>
       <c r="K336" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L336" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M336" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L336" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M336" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N336" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8334,19 +8676,19 @@
       <c r="I337" s="31"/>
       <c r="J337" s="29"/>
       <c r="K337" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L337" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M337" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L337" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M337" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N337" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8364,19 +8706,19 @@
       <c r="I338" s="31"/>
       <c r="J338" s="29"/>
       <c r="K338" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L338" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M338" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L338" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M338" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N338" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8394,19 +8736,19 @@
       <c r="I339" s="31"/>
       <c r="J339" s="29"/>
       <c r="K339" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L339" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M339" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L339" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M339" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N339" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8424,19 +8766,19 @@
       <c r="I340" s="31"/>
       <c r="J340" s="29"/>
       <c r="K340" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L340" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M340" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L340" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M340" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N340" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8454,19 +8796,19 @@
       <c r="I341" s="31"/>
       <c r="J341" s="29"/>
       <c r="K341" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L341" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M341" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L341" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M341" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N341" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8484,19 +8826,19 @@
       <c r="I342" s="31"/>
       <c r="J342" s="29"/>
       <c r="K342" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L342" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M342" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L342" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M342" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N342" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8514,19 +8856,19 @@
       <c r="I343" s="31"/>
       <c r="J343" s="29"/>
       <c r="K343" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L343" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M343" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L343" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M343" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N343" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8544,19 +8886,19 @@
       <c r="I344" s="31"/>
       <c r="J344" s="29"/>
       <c r="K344" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L344" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M344" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L344" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M344" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N344" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8574,19 +8916,19 @@
       <c r="I345" s="31"/>
       <c r="J345" s="29"/>
       <c r="K345" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L345" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M345" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L345" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M345" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N345" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8604,19 +8946,19 @@
       <c r="I346" s="31"/>
       <c r="J346" s="29"/>
       <c r="K346" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L346" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M346" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L346" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M346" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N346" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8634,19 +8976,19 @@
       <c r="I347" s="31"/>
       <c r="J347" s="29"/>
       <c r="K347" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L347" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M347" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L347" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M347" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N347" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8664,19 +9006,19 @@
       <c r="I348" s="31"/>
       <c r="J348" s="29"/>
       <c r="K348" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L348" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M348" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L348" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M348" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N348" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8694,19 +9036,19 @@
       <c r="I349" s="31"/>
       <c r="J349" s="29"/>
       <c r="K349" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L349" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M349" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L349" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M349" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N349" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8724,19 +9066,19 @@
       <c r="I350" s="31"/>
       <c r="J350" s="29"/>
       <c r="K350" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L350" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M350" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L350" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M350" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N350" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8754,19 +9096,19 @@
       <c r="I351" s="31"/>
       <c r="J351" s="29"/>
       <c r="K351" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L351" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M351" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L351" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M351" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N351" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8784,19 +9126,19 @@
       <c r="I352" s="31"/>
       <c r="J352" s="29"/>
       <c r="K352" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L352" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M352" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L352" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M352" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N352" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8814,19 +9156,19 @@
       <c r="I353" s="31"/>
       <c r="J353" s="29"/>
       <c r="K353" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L353" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M353" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L353" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M353" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N353" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8844,19 +9186,19 @@
       <c r="I354" s="31"/>
       <c r="J354" s="29"/>
       <c r="K354" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L354" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M354" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L354" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M354" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N354" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8874,19 +9216,19 @@
       <c r="I355" s="31"/>
       <c r="J355" s="29"/>
       <c r="K355" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L355" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M355" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L355" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M355" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N355" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8904,19 +9246,19 @@
       <c r="I356" s="31"/>
       <c r="J356" s="29"/>
       <c r="K356" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L356" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M356" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L356" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M356" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N356" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8934,19 +9276,19 @@
       <c r="I357" s="31"/>
       <c r="J357" s="29"/>
       <c r="K357" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L357" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M357" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L357" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M357" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N357" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8964,19 +9306,19 @@
       <c r="I358" s="31"/>
       <c r="J358" s="29"/>
       <c r="K358" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L358" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M358" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L358" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M358" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N358" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8994,19 +9336,19 @@
       <c r="I359" s="31"/>
       <c r="J359" s="29"/>
       <c r="K359" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L359" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M359" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L359" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M359" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N359" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9024,19 +9366,19 @@
       <c r="I360" s="31"/>
       <c r="J360" s="29"/>
       <c r="K360" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L360" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M360" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L360" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M360" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N360" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9054,19 +9396,19 @@
       <c r="I361" s="31"/>
       <c r="J361" s="29"/>
       <c r="K361" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L361" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M361" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L361" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M361" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N361" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9084,19 +9426,19 @@
       <c r="I362" s="31"/>
       <c r="J362" s="29"/>
       <c r="K362" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L362" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M362" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L362" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M362" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N362" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9114,19 +9456,19 @@
       <c r="I363" s="31"/>
       <c r="J363" s="29"/>
       <c r="K363" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L363" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M363" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L363" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M363" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N363" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9144,19 +9486,19 @@
       <c r="I364" s="31"/>
       <c r="J364" s="29"/>
       <c r="K364" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L364" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M364" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L364" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M364" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N364" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9174,19 +9516,19 @@
       <c r="I365" s="31"/>
       <c r="J365" s="29"/>
       <c r="K365" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L365" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M365" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L365" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M365" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N365" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9204,19 +9546,19 @@
       <c r="I366" s="31"/>
       <c r="J366" s="29"/>
       <c r="K366" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L366" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M366" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L366" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M366" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N366" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9234,19 +9576,19 @@
       <c r="I367" s="31"/>
       <c r="J367" s="29"/>
       <c r="K367" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L367" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M367" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L367" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M367" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N367" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9264,19 +9606,19 @@
       <c r="I368" s="31"/>
       <c r="J368" s="29"/>
       <c r="K368" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L368" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M368" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L368" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M368" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N368" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9294,19 +9636,19 @@
       <c r="I369" s="31"/>
       <c r="J369" s="29"/>
       <c r="K369" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L369" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M369" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L369" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M369" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N369" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9324,19 +9666,19 @@
       <c r="I370" s="31"/>
       <c r="J370" s="29"/>
       <c r="K370" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L370" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M370" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L370" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M370" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N370" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9354,19 +9696,19 @@
       <c r="I371" s="31"/>
       <c r="J371" s="29"/>
       <c r="K371" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L371" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M371" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L371" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M371" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N371" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9384,19 +9726,19 @@
       <c r="I372" s="31"/>
       <c r="J372" s="29"/>
       <c r="K372" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L372" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M372" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L372" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M372" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N372" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9414,19 +9756,19 @@
       <c r="I373" s="31"/>
       <c r="J373" s="29"/>
       <c r="K373" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L373" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M373" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L373" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M373" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N373" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9444,19 +9786,19 @@
       <c r="I374" s="31"/>
       <c r="J374" s="29"/>
       <c r="K374" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L374" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M374" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L374" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M374" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N374" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9474,19 +9816,19 @@
       <c r="I375" s="31"/>
       <c r="J375" s="29"/>
       <c r="K375" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L375" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M375" s="42" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L375" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M375" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N375" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9504,19 +9846,19 @@
       <c r="I376" s="31"/>
       <c r="J376" s="29"/>
       <c r="K376" s="42" t="str">
-        <f t="shared" ref="K376:K424" si="20">IF(A376&lt;&gt;"",IF(OR(AND(D376&lt;2,F376&lt;16),AND(D376=2,F376&lt;5)),"Simples",IF(AND(D376=2,F376&gt;15),"Complexo",IF(AND(D376&gt;2,F376&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="K376:K424" si="17">IF(A376&lt;&gt;"",IF(OR(AND(D376&lt;2,F376&lt;16),AND(D376=2,F376&lt;5)),"Simples",IF(AND(D376=2,F376&gt;15),"Complexo",IF(AND(D376&gt;2,F376&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="L376" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M376" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N376" s="44" t="str">
-        <f t="shared" ref="N376:N424" si="21">IF(AND(A376&lt;&gt;"",M376="Simples"),4,IF(AND(A376&lt;&gt;0,M376="Medio"),5,IF(AND(A376&lt;&gt;0,M376="Complexo"),7,"")))</f>
+        <f t="shared" ref="N376:N424" si="18">IF(AND(A376&lt;&gt;"",M376="Simples"),4,IF(AND(A376&lt;&gt;0,M376="Medio"),5,IF(AND(A376&lt;&gt;0,M376="Complexo"),7,"")))</f>
         <v/>
       </c>
     </row>
@@ -9534,19 +9876,19 @@
       <c r="I377" s="31"/>
       <c r="J377" s="29"/>
       <c r="K377" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L377" s="42" t="str">
-        <f t="shared" ref="L377:L424" si="22">IF(A377&lt;&gt;"",IF(OR(AND(H377&lt;2,J377&lt;16),AND(H377=2,J377&lt;5)),"Simples",IF(AND(H377=2,J377&gt;15),"Complexo",IF(AND(H377&gt;2,J377&gt;4),"Complexo","Medio"))),"")</f>
+        <f t="shared" ref="L377:L424" si="19">IF(A377&lt;&gt;"",IF(OR(AND(H377&lt;2,J377&lt;16),AND(H377=2,J377&lt;5)),"Simples",IF(AND(H377=2,J377&gt;15),"Complexo",IF(AND(H377&gt;2,J377&gt;4),"Complexo","Medio"))),"")</f>
         <v/>
       </c>
       <c r="M377" s="42" t="str">
-        <f t="shared" ref="M377:M424" si="23">IF(A377&lt;&gt;"",IF(AND(K377="Simples",L377="Simples"),"Simples",IF(AND(K377="Simples",L377="Medio"),"Medio",IF(AND(K377="Medio",L377="Simples"),"Medio",IF(AND(K377="Medio",L377="Medio"),"Medio","Complexo")))),"")</f>
+        <f t="shared" ref="M377:M424" si="20">IF(A377&lt;&gt;"",IF(AND(K377="Simples",L377="Simples"),"Simples",IF(AND(K377="Simples",L377="Medio"),"Medio",IF(AND(K377="Medio",L377="Simples"),"Medio",IF(AND(K377="Medio",L377="Medio"),"Medio","Complexo")))),"")</f>
         <v/>
       </c>
       <c r="N377" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9564,19 +9906,19 @@
       <c r="I378" s="31"/>
       <c r="J378" s="29"/>
       <c r="K378" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L378" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M378" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L378" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M378" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N378" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9594,19 +9936,19 @@
       <c r="I379" s="31"/>
       <c r="J379" s="29"/>
       <c r="K379" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L379" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M379" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L379" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M379" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N379" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9624,19 +9966,19 @@
       <c r="I380" s="31"/>
       <c r="J380" s="29"/>
       <c r="K380" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L380" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M380" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L380" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M380" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N380" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9654,19 +9996,19 @@
       <c r="I381" s="31"/>
       <c r="J381" s="29"/>
       <c r="K381" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L381" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M381" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L381" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M381" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N381" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9684,19 +10026,19 @@
       <c r="I382" s="31"/>
       <c r="J382" s="29"/>
       <c r="K382" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L382" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M382" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L382" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M382" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N382" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9714,19 +10056,19 @@
       <c r="I383" s="31"/>
       <c r="J383" s="29"/>
       <c r="K383" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L383" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M383" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L383" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M383" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N383" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9744,19 +10086,19 @@
       <c r="I384" s="31"/>
       <c r="J384" s="29"/>
       <c r="K384" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L384" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M384" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L384" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M384" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N384" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9774,19 +10116,19 @@
       <c r="I385" s="31"/>
       <c r="J385" s="29"/>
       <c r="K385" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L385" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M385" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L385" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M385" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N385" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9804,19 +10146,19 @@
       <c r="I386" s="31"/>
       <c r="J386" s="29"/>
       <c r="K386" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L386" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M386" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L386" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M386" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N386" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9834,19 +10176,19 @@
       <c r="I387" s="31"/>
       <c r="J387" s="29"/>
       <c r="K387" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L387" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M387" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L387" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M387" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N387" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9864,19 +10206,19 @@
       <c r="I388" s="31"/>
       <c r="J388" s="29"/>
       <c r="K388" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L388" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M388" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L388" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M388" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N388" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9894,19 +10236,19 @@
       <c r="I389" s="31"/>
       <c r="J389" s="29"/>
       <c r="K389" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L389" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M389" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L389" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M389" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N389" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9924,19 +10266,19 @@
       <c r="I390" s="31"/>
       <c r="J390" s="29"/>
       <c r="K390" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L390" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M390" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L390" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M390" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N390" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9954,19 +10296,19 @@
       <c r="I391" s="31"/>
       <c r="J391" s="29"/>
       <c r="K391" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L391" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M391" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L391" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M391" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N391" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9984,19 +10326,19 @@
       <c r="I392" s="31"/>
       <c r="J392" s="29"/>
       <c r="K392" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L392" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M392" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L392" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M392" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N392" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10014,19 +10356,19 @@
       <c r="I393" s="31"/>
       <c r="J393" s="29"/>
       <c r="K393" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L393" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M393" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L393" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M393" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N393" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10044,19 +10386,19 @@
       <c r="I394" s="31"/>
       <c r="J394" s="29"/>
       <c r="K394" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L394" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M394" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L394" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M394" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N394" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10074,19 +10416,19 @@
       <c r="I395" s="31"/>
       <c r="J395" s="29"/>
       <c r="K395" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L395" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M395" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L395" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M395" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N395" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10104,19 +10446,19 @@
       <c r="I396" s="31"/>
       <c r="J396" s="29"/>
       <c r="K396" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L396" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M396" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L396" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M396" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N396" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10134,19 +10476,19 @@
       <c r="I397" s="31"/>
       <c r="J397" s="29"/>
       <c r="K397" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L397" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M397" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L397" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M397" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N397" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10164,19 +10506,19 @@
       <c r="I398" s="31"/>
       <c r="J398" s="29"/>
       <c r="K398" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L398" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M398" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L398" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M398" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N398" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10194,19 +10536,19 @@
       <c r="I399" s="31"/>
       <c r="J399" s="29"/>
       <c r="K399" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L399" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M399" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L399" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M399" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N399" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10224,19 +10566,19 @@
       <c r="I400" s="31"/>
       <c r="J400" s="29"/>
       <c r="K400" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L400" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M400" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L400" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M400" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N400" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10254,19 +10596,19 @@
       <c r="I401" s="31"/>
       <c r="J401" s="29"/>
       <c r="K401" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L401" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M401" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L401" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M401" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N401" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10284,19 +10626,19 @@
       <c r="I402" s="31"/>
       <c r="J402" s="29"/>
       <c r="K402" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L402" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M402" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L402" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M402" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N402" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10314,19 +10656,19 @@
       <c r="I403" s="31"/>
       <c r="J403" s="29"/>
       <c r="K403" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L403" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M403" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L403" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M403" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N403" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10344,19 +10686,19 @@
       <c r="I404" s="31"/>
       <c r="J404" s="29"/>
       <c r="K404" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L404" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M404" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L404" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M404" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N404" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10374,19 +10716,19 @@
       <c r="I405" s="31"/>
       <c r="J405" s="29"/>
       <c r="K405" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L405" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M405" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L405" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M405" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N405" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10404,19 +10746,19 @@
       <c r="I406" s="31"/>
       <c r="J406" s="29"/>
       <c r="K406" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L406" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M406" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L406" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M406" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N406" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10434,19 +10776,19 @@
       <c r="I407" s="31"/>
       <c r="J407" s="29"/>
       <c r="K407" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L407" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M407" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L407" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M407" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N407" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10464,19 +10806,19 @@
       <c r="I408" s="31"/>
       <c r="J408" s="29"/>
       <c r="K408" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L408" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M408" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L408" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M408" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N408" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10494,19 +10836,19 @@
       <c r="I409" s="31"/>
       <c r="J409" s="29"/>
       <c r="K409" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L409" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M409" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L409" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M409" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N409" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10524,19 +10866,19 @@
       <c r="I410" s="31"/>
       <c r="J410" s="29"/>
       <c r="K410" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L410" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M410" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L410" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M410" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N410" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10554,19 +10896,19 @@
       <c r="I411" s="31"/>
       <c r="J411" s="29"/>
       <c r="K411" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L411" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M411" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L411" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M411" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N411" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10584,19 +10926,19 @@
       <c r="I412" s="31"/>
       <c r="J412" s="29"/>
       <c r="K412" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L412" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M412" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L412" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M412" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N412" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10614,19 +10956,19 @@
       <c r="I413" s="31"/>
       <c r="J413" s="29"/>
       <c r="K413" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L413" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M413" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L413" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M413" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N413" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10644,19 +10986,19 @@
       <c r="I414" s="31"/>
       <c r="J414" s="29"/>
       <c r="K414" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L414" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M414" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L414" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M414" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N414" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10674,19 +11016,19 @@
       <c r="I415" s="31"/>
       <c r="J415" s="29"/>
       <c r="K415" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L415" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M415" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L415" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M415" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N415" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10704,19 +11046,19 @@
       <c r="I416" s="31"/>
       <c r="J416" s="29"/>
       <c r="K416" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L416" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M416" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L416" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M416" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N416" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10734,19 +11076,19 @@
       <c r="I417" s="31"/>
       <c r="J417" s="29"/>
       <c r="K417" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L417" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M417" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L417" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M417" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N417" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10764,19 +11106,19 @@
       <c r="I418" s="31"/>
       <c r="J418" s="29"/>
       <c r="K418" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L418" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M418" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L418" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M418" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N418" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10794,19 +11136,19 @@
       <c r="I419" s="31"/>
       <c r="J419" s="29"/>
       <c r="K419" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L419" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M419" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L419" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M419" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N419" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10824,19 +11166,19 @@
       <c r="I420" s="31"/>
       <c r="J420" s="29"/>
       <c r="K420" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L420" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M420" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L420" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M420" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N420" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10854,19 +11196,19 @@
       <c r="I421" s="31"/>
       <c r="J421" s="29"/>
       <c r="K421" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L421" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M421" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L421" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M421" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N421" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10884,19 +11226,19 @@
       <c r="I422" s="31"/>
       <c r="J422" s="29"/>
       <c r="K422" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L422" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M422" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L422" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M422" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N422" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10914,19 +11256,19 @@
       <c r="I423" s="31"/>
       <c r="J423" s="29"/>
       <c r="K423" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L423" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M423" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L423" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M423" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N423" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -10944,19 +11286,19 @@
       <c r="I424" s="31"/>
       <c r="J424" s="29"/>
       <c r="K424" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L424" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M424" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L424" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M424" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="N424" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -11002,7 +11344,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11041,106 +11383,134 @@
       </c>
       <c r="F5">
         <f>0.65+(0.01*C20)</f>
-        <v>0.65</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="F7">
         <f>'Pontos Nao Ajustados'!C5</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="12">
         <f>F5*F7</f>
-        <v>0</v>
+        <v>144.72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
@@ -11148,7 +11518,7 @@
       </c>
       <c r="C20" s="14">
         <f>SUM(C6:C19)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -14256,7 +14626,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
